--- a/Team-Info.xlsx
+++ b/Team-Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abusharaf/Me.Projects/COVID 19 Case/covid19-case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434FC69C-BC1E-C548-811C-A6A21C66FABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210321B2-979D-BD40-8912-25790A43CD70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14860" xr2:uid="{BCA71BBA-E0FA-1949-B235-689BD1786EA4}"/>
   </bookViews>
